--- a/context/Dados_UCS.xlsx
+++ b/context/Dados_UCS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Desktop\Projeto Final\context\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno.eusebio\Desktop\Projeto UAB - CHATBOT\context\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2773166-2FA8-4701-A191-3AC820C05563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FABCA68-E172-4DD3-B73B-6230AD56F1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{553EF919-D27F-470E-B405-FB6ED3D9ACCA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{553EF919-D27F-470E-B405-FB6ED3D9ACCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="111">
   <si>
     <t>Nome da Unidade Curricular</t>
   </si>
@@ -90,12 +90,6 @@
   </si>
   <si>
     <t>Plano de Trabalho</t>
-  </si>
-  <si>
-    <t>Calendária Avaliação</t>
-  </si>
-  <si>
-    <t>Efólio A - 26 de Março a 11 de Abril. Efolio B - 24 de Abril a 9 de Maio.</t>
   </si>
   <si>
     <t>Sistemas Distribuídos</t>
@@ -121,9 +115,6 @@
     <t>Elementos de apoio disponibilizados pelo docente ao longo do semestre. Links para sites e páginas web com informação complementar.</t>
   </si>
   <si>
-    <t>Efólio A - 12 de Abril a 24 de Abril. Efolio B - 3 de Maio a 15 de Maio.</t>
-  </si>
-  <si>
     <t>Raciocínio e Representação do Conhecimento</t>
   </si>
   <si>
@@ -146,9 +137,6 @@
   </si>
   <si>
     <t>Para consultar o plano de trabalho , consultar o PUC da UC capitulo 7 .</t>
-  </si>
-  <si>
-    <t>Efólio A - 5 de Abril a 15 de Abril. Efolio B - 10 de Maio a 20 de Maio.</t>
   </si>
   <si>
     <t>Compilação</t>
@@ -215,6 +203,177 @@
   </si>
   <si>
     <t>Linguagens Web 6ª edição Lisboa de Alexandre Pereira e Carlos Poupa</t>
+  </si>
+  <si>
+    <t>Calendário Avaliação</t>
+  </si>
+  <si>
+    <t>Efólio A - 26 de Março a 11 de Abril. Efólio B - 24 de Abril a 9 de Maio.</t>
+  </si>
+  <si>
+    <t>Efólio A - 12 de Abril a 24 de Abril. Efólio B - 3 de Maio a 15 de Maio.</t>
+  </si>
+  <si>
+    <t>Efólio A - 5 de Abril a 15 de Abril. Efólio B - 10 de Maio a 20 de Maio.</t>
+  </si>
+  <si>
+    <t>Computação Gráfica</t>
+  </si>
+  <si>
+    <t>António Araújo, Pedro Pestana</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Proporcionar aos alunos os conhecimentos e práticas fundamentais acerca dos princípios, conceitos, modelos e principais técnicas relacionadas com a computação gráfica. Na componente prática, é utilizada a framework Three.js.</t>
+  </si>
+  <si>
+    <t>Reconhecer a importância da computação gráfica; Descrever a geometria de objetos gráficos e conceitos básicos; Analisar técnicas de geração, recorte e transformações de gráficos; Analisar métodos para representar curvas, superfícies e sólidos; Avaliar e propor melhorias em métodos e algoritmos de computação gráfica.</t>
+  </si>
+  <si>
+    <t>6 : Introdução à Computação Gráfica; Primitivas em Gráficos Raster; Preenchimento e Recorte 3D; Transformações Geométricas e Visualização 2D/3D; Modelos de Cor e Iluminação; Representação de Curvas e Sólidos</t>
+  </si>
+  <si>
+    <t>Cada aluno deverá disponibilizar uma média de 6 horas semanais para se ligar on-line na plataforma e participar nas atividades, estando previstas um total de 156 horas de trabalho e 26 de contato. O aluno deverá aceder diariamente esta UC. Dada a natureza tecnológica da unidade curricular o processo de ensino/aprendizagem adotará uma metodologia de trabalho baseada na análise crítica de técnicas e algoritmos e a implementação de abordagens alternativas dos mesmos recorrendo também à programação da framework Three.js, baseada em WebGL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Graphics - Principles and Practice, Addison-Wesley  ; Introdução à Computação Gráfica, FCA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Graphics, Schaum's Outlines, McGraw-Hill, 2nd Edition; "Learning Three. js: the JavaScript 3D library for WebGL; </t>
+  </si>
+  <si>
+    <t>A avaliação assume o regime de avaliação contínua obrigatória.</t>
+  </si>
+  <si>
+    <t>Efólio A - 27 de Outubro a 29 de Novembro. Efólio B - 15 de Dezembro a 8 de Janeiro.</t>
+  </si>
+  <si>
+    <t>Computação Numérica</t>
+  </si>
+  <si>
+    <t>Paulo Shirley</t>
+  </si>
+  <si>
+    <t>Centra-se na vertente numérica da computação. São discutidos alguns dos algoritmos principais de métodos numéricos e suas aplicações práticas, tendo os alunos de programar alguns deles de forma a contactar com as dificuldades práticas na sua realização e implementação.</t>
+  </si>
+  <si>
+    <t>Saber e programar algoritmos de métodos numéricos de forma a resolver numericamente problemas cujo tratamento analítico é complexo ou mesmo impossível; Conhecer uma linguagem de programação vocacionada para a computação científica.</t>
+  </si>
+  <si>
+    <t>4 : Introdução ao Cálculo Numérico; Equações Não-Lineares; Sistemas de Equações Lineares; Linguagem de programação (nível básico/intermédio) utilizada no ambiente de computação científica Octave</t>
+  </si>
+  <si>
+    <t>Estudar os conteúdos indicados; Tentar resolver as atividades propostas; Utilizar o Fórum do respetivo módulo para troca de ideias e esclarecimento de dúvidas sobre a resolução dos exercícios das atividades e conteúdos do módulo; Comparar a sua resolução da atividade formativa com os tópicos p/ soluções fornecidos pelo professor.</t>
+  </si>
+  <si>
+    <t>Análise Numérica, UA 1996 ; GNU Octave - A high level interactive language for numerical computations</t>
+  </si>
+  <si>
+    <t>Eventualmente recursos disponíveis  na Internet, a indicar posteriormente na página da unidade curricular.</t>
+  </si>
+  <si>
+    <t>Efólio A - 27 de Outubro a 6 de Novembro. Efólio B - 15 de Dezembro a 8 de Janeiro.</t>
+  </si>
+  <si>
+    <t>Sistemas de Gestão de Bases de Dados</t>
+  </si>
+  <si>
+    <t>Paulo Pombinho , Águeda Ramos</t>
+  </si>
+  <si>
+    <t>Os sistemas de gestão de bases de dados são críticos para as aplicações usadas hoje em dia. Aspectos como o armazenamento, o processamento de consultas, a concorrência em ambientes trasacionais, e sistema de recuperação são imprescindíveis para a interacção com grandes quantidades de dados. São ainda referidos temas como o Data Warehouse e Information Retrieval.</t>
+  </si>
+  <si>
+    <t>Reconhecer o sistema transacional e formas de recuperação de dados; reconhecer ambientes de Data Warehouse, Data Mining e Information Retrieval; desenvolver um Data Warehouse com base nas fontes de dados existentes</t>
+  </si>
+  <si>
+    <t>2 : Consultas de Dados e Transações; Data Warehouse e Information Retrieval</t>
+  </si>
+  <si>
+    <t>A participação nesta UC é realizada através de atividades formativas semanais e da interação nos fóruns.</t>
+  </si>
+  <si>
+    <t>Database System Concepts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fundamentos de Bases de Dados, 2014 ; Data Warehousing: conceitos e modelos, 3a edição, 2023; http://db-book.com </t>
+  </si>
+  <si>
+    <t>Efólio A - 10 de Novembro a 20 de Novembro. Efólio B - 12 de Janeiro a 22 de Janeiro.</t>
+  </si>
+  <si>
+    <t>Gestão de Projetos Informáticos</t>
+  </si>
+  <si>
+    <t>José Coelho</t>
+  </si>
+  <si>
+    <t>São apresentados modelos de gestão de projetos de forma a dotar os estudantes com as capacidades básicas de gestão e liderança em projetos informáticos.</t>
+  </si>
+  <si>
+    <t>Compreender os conceitos básicos utilizados em gestão de projetos; aplicar os principais modelos de gestão de projetos; considerar incerteza no projeto; gerir a execução de um projeto informático</t>
+  </si>
+  <si>
+    <t>4 : Introdução; Modelação; Incerteza; Execução</t>
+  </si>
+  <si>
+    <t>Materiais disponibilizados online</t>
+  </si>
+  <si>
+    <t>Integrated Project Management Sourcebook - A Technical Guide to Project Scheduling, Risk and Control; Gestão de  Projetos de Software , 5 Edição</t>
+  </si>
+  <si>
+    <t>Efólio A - 11 de Novembro a 21 de Novembro. Efólio B - 9 de Dezembro a 19 de Dezembro.</t>
+  </si>
+  <si>
+    <t>Sistemas Multimédia</t>
+  </si>
+  <si>
+    <t>Esta unidade curricular tem como objetivo principal apresentar uma introdução fundamentada, clara e integrada dos conceitos, tecnologias e metodologias que suportam o desenvolvimento dos Sistemas Multimédia e das Aplicações Interativas.</t>
+  </si>
+  <si>
+    <t>Identificar com clareza os princípios fundamentais e as questões envolvidas no desenvolvimento de aplicações multimédia; descrever os aspetos técnicos sobre os quais se fundamentam estas aplicações; ficar habilitado com conhecimentos teóricos e capacidades técnicas que lhe permitam implementar a comunicação multimédia</t>
+  </si>
+  <si>
+    <t>7 : Introdução ao Multimédia; Informação Digital e Interatividade; Aplicações Multimédia Interativas; Tipos de Media Estáticos; Tipos de Media Dinâmicos;  Autoria Multimédia e Sistemas Multimédia; Projeto Multimédia</t>
+  </si>
+  <si>
+    <t>Em cada módulo o estudante tem ao seu dispor lições, que são textos de apoio à matéria. Cada lição tem uma atividade formativa associada que deve ser feita após a realização da lição. Exceto no primeiro e último módulo, caso o estudante tenha optado pela avaliação continua, tem que entregar no final um e-fólio que conta para nota.  Este ano será introduzido um elemento experimental, as sessões sincronas.</t>
+  </si>
+  <si>
+    <t>A metodologia de trabalho utilizada pela Unidade Curricular compreende o estudo e a reflexão individuais (A), a partilha da reflexão e do estudo com os colegas, bem como o esclarecimento de dúvidas nos fóruns (B) e a realização de atividades (C).</t>
+  </si>
+  <si>
+    <t>Multimédia e Tecnologias Interativas, 5ª edição</t>
+  </si>
+  <si>
+    <t>Digital Multimedia , 2009; Outros recursos de apoio à aprendizagem são disponibilizados com as atividades de aprendizagem</t>
+  </si>
+  <si>
+    <t>Efólio A - 2 de Novembro a 17 de Novembro. Efólio B - 14 de Dezembro a 4 de Janeiro.</t>
+  </si>
+  <si>
+    <t>Segurança em Redes e Computadores</t>
+  </si>
+  <si>
+    <t>José Henrique Mamede</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Apresentar os conceitos centrais sobre segurança informática, com foco na segurança em redes e em computadores e propiciar os meios para o desenvolvimento académico da área.</t>
+  </si>
+  <si>
+    <t>Reconhecer a importância da segurança informática no contexto atual da sociedade de informação; Dominar os conceitos centrais relacionados com a transmissão segura de dados; Arquitetar e implementar mecanismos eficientes para lidar com as principais ameaças à segurança de redes de computadores</t>
+  </si>
+  <si>
+    <t>3 : Introdução à Segurança Informática; Noções Básicas de Criptografia; Segurança em Redes</t>
+  </si>
+  <si>
+    <t>Cryptography and Network Security: Principles and Practice , 7ª edição</t>
+  </si>
+  <si>
+    <t>O modelo de trabalho colaborativo assíncrono é idêntico e baseado nos princípios estabelecidos pelo Modelo Pedagógico Virtual da Universidade Aberta (MPV). A bases de sustentação deste trabalho assíncrono são os fóruns de discussão, suportando as interações professor-estudante, bem como as estudante-estudante. Será necessário ler os recursos recomendados e efetuar as atividades formativas. Também existem algumas sessao sincronas.</t>
+  </si>
+  <si>
+    <t>Serão disponibilizados pelo professor.</t>
   </si>
 </sst>
 </file>
@@ -628,13 +787,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3532A4-3932-4FC7-A81E-097E9F04FBB6}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="F12" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.7109375" customWidth="1"/>
@@ -683,7 +842,7 @@
         <v>17</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="210" x14ac:dyDescent="0.25">
@@ -700,7 +859,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>11</v>
@@ -709,7 +868,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>15</v>
@@ -718,10 +877,10 @@
         <v>16</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="105" x14ac:dyDescent="0.25">
@@ -729,37 +888,37 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="267.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -767,37 +926,37 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -809,37 +968,37 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -851,145 +1010,287 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="G6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="I6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="K6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+    <row r="7" spans="1:16" ht="195" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+    <row r="8" spans="1:16" ht="240" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+    <row r="9" spans="1:16" ht="315" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+    <row r="10" spans="1:16" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+    <row r="11" spans="1:16" ht="225" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+    <row r="12" spans="1:16" ht="165" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -1105,20 +1406,20 @@
       <c r="P18" s="3"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
